--- a/input/contoh_excel.xlsx
+++ b/input/contoh_excel.xlsx
@@ -593,7 +593,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>gagal - HTTP 429</t>
+          <t>gagal - Usaha ini sudah diground check oleh user lain. Terima kasih!</t>
         </is>
       </c>
     </row>
@@ -15881,7 +15881,7 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>gagal - HTTP 429</t>
+          <t>gagal</t>
         </is>
       </c>
     </row>

--- a/input/contoh_excel.xlsx
+++ b/input/contoh_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\matchain\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919ECFB0-E26A-44E9-9D07-E480759E2EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5946706B-0085-432F-B792-8FA1C31777D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>perusahaan_id</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>110.5020287</t>
-  </si>
-  <si>
-    <t>gagal - Usaha ini sudah diground check oleh user lain. Terima kasih!</t>
   </si>
   <si>
     <t>eyJpdiI6IlhzdllFMVFrcmo2Umk2Ymp6RDFpMEE9PSIsInZhbHVlIjoiTXIrOU82UXkxUzRHdGtiQUR4eVYvZz09IiwibWFjIjoiNzgwYmU2ODFkYjM3ZmFjNjI3NjQyM2ExMzg4YjlkZDg4OTUzMGJiNmY5MWU2YmY3ZTcxODNjODIzYjQyY2YzYiIsInRhZyI6IiJ9</t>
@@ -469,7 +466,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I399"/>
+      <selection activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,18 +566,18 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -597,13 +594,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
